--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ncam1-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ncam1-Ptprz1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.05354133333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.160624</v>
+      </c>
+      <c r="I2">
+        <v>0.00209946492164722</v>
+      </c>
+      <c r="J2">
+        <v>0.00209946492164722</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.9404873333333333</v>
-      </c>
-      <c r="H2">
-        <v>2.821462</v>
-      </c>
-      <c r="I2">
-        <v>0.02000383747045655</v>
-      </c>
-      <c r="J2">
-        <v>0.02000383747045654</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N2">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q2">
-        <v>0.03757967936955556</v>
+        <v>0.0009897293937777779</v>
       </c>
       <c r="R2">
-        <v>0.338217114326</v>
+        <v>0.008907564544000001</v>
       </c>
       <c r="S2">
-        <v>0.0001063190144641707</v>
+        <v>3.412054443410927E-06</v>
       </c>
       <c r="T2">
-        <v>0.0001063190144641707</v>
+        <v>3.412054443410927E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9404873333333333</v>
+        <v>0.05354133333333333</v>
       </c>
       <c r="H3">
-        <v>2.821462</v>
+        <v>0.160624</v>
       </c>
       <c r="I3">
-        <v>0.02000383747045655</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="J3">
-        <v>0.02000383747045654</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.092074</v>
       </c>
       <c r="O3">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P3">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q3">
-        <v>0.02886481024311111</v>
+        <v>0.001643254908444444</v>
       </c>
       <c r="R3">
-        <v>0.259783292188</v>
+        <v>0.014789294176</v>
       </c>
       <c r="S3">
-        <v>8.166323473821508E-05</v>
+        <v>5.665058800177035E-06</v>
       </c>
       <c r="T3">
-        <v>8.166323473821509E-05</v>
+        <v>5.665058800177034E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9404873333333333</v>
+        <v>0.05354133333333333</v>
       </c>
       <c r="H4">
-        <v>2.821462</v>
+        <v>0.160624</v>
       </c>
       <c r="I4">
-        <v>0.02000383747045655</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="J4">
-        <v>0.02000383747045654</v>
+        <v>0.00209946492164722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N4">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O4">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P4">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q4">
-        <v>7.004142103849334</v>
+        <v>0.606355582152889</v>
       </c>
       <c r="R4">
-        <v>63.03727893464401</v>
+        <v>5.457200239376</v>
       </c>
       <c r="S4">
-        <v>0.01981585522125416</v>
+        <v>0.002090387808403632</v>
       </c>
       <c r="T4">
-        <v>0.01981585522125416</v>
+        <v>0.002090387808403631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>4.177801000000001</v>
       </c>
       <c r="I5">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="J5">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N5">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O5">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P5">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q5">
-        <v>0.05564505991922223</v>
+        <v>0.02574268136177778</v>
       </c>
       <c r="R5">
-        <v>0.5008055392730001</v>
+        <v>0.231684132256</v>
       </c>
       <c r="S5">
-        <v>0.0001574289091780882</v>
+        <v>8.87469149425778E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001574289091780882</v>
+        <v>8.874691494257779E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.177801000000001</v>
       </c>
       <c r="I6">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="J6">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.092074</v>
       </c>
       <c r="O6">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P6">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q6">
         <v>0.04274076103044445</v>
@@ -818,10 +818,10 @@
         <v>0.3846668492740001</v>
       </c>
       <c r="S6">
-        <v>0.0001209205524485355</v>
+        <v>0.0001473471481250524</v>
       </c>
       <c r="T6">
-        <v>0.0001209205524485355</v>
+        <v>0.0001473471481250524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.177801000000001</v>
       </c>
       <c r="I7">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="J7">
-        <v>0.0296201232509638</v>
+        <v>0.05460670042535784</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N7">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O7">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P7">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q7">
-        <v>10.37118766285134</v>
+        <v>15.77119831079989</v>
       </c>
       <c r="R7">
-        <v>93.34068896566203</v>
+        <v>141.940784797199</v>
       </c>
       <c r="S7">
-        <v>0.02934177378933718</v>
+        <v>0.05437060636229021</v>
       </c>
       <c r="T7">
-        <v>0.02934177378933718</v>
+        <v>0.0543706063622902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.682258</v>
+        <v>24.05622933333333</v>
       </c>
       <c r="H8">
-        <v>134.046774</v>
+        <v>72.168688</v>
       </c>
       <c r="I8">
-        <v>0.9503760392785797</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="J8">
-        <v>0.9503760392785796</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N8">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O8">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P8">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q8">
-        <v>1.785398771078</v>
+        <v>0.4446874179697778</v>
       </c>
       <c r="R8">
-        <v>16.068588939702</v>
+        <v>4.002186761728001</v>
       </c>
       <c r="S8">
-        <v>0.005051183005045408</v>
+        <v>0.001533042960986757</v>
       </c>
       <c r="T8">
-        <v>0.005051183005045408</v>
+        <v>0.001533042960986757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.682258</v>
+        <v>24.05622933333333</v>
       </c>
       <c r="H9">
-        <v>134.046774</v>
+        <v>72.168688</v>
       </c>
       <c r="I9">
-        <v>0.9503760392785797</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="J9">
-        <v>0.9503760392785796</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.092074</v>
       </c>
       <c r="O9">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P9">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q9">
-        <v>1.371358074364</v>
+        <v>0.7383177532124445</v>
       </c>
       <c r="R9">
-        <v>12.342222669276</v>
+        <v>6.644859778912</v>
       </c>
       <c r="S9">
-        <v>0.003879794649391863</v>
+        <v>0.002545322374312873</v>
       </c>
       <c r="T9">
-        <v>0.003879794649391864</v>
+        <v>0.002545322374312872</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.682258</v>
+        <v>24.05622933333333</v>
       </c>
       <c r="H10">
-        <v>134.046774</v>
+        <v>72.168688</v>
       </c>
       <c r="I10">
-        <v>0.9503760392785797</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="J10">
-        <v>0.9503760392785796</v>
+        <v>0.943293834652995</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N10">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O10">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P10">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q10">
-        <v>332.764592845332</v>
+        <v>272.4367891812569</v>
       </c>
       <c r="R10">
-        <v>2994.881335607988</v>
+        <v>2451.931102631313</v>
       </c>
       <c r="S10">
-        <v>0.9414450616241424</v>
+        <v>0.9392154693176954</v>
       </c>
       <c r="T10">
-        <v>0.9414450616241424</v>
+        <v>0.9392154693176952</v>
       </c>
     </row>
   </sheetData>
